--- a/tests/integration/backend/excel/export/07_custom_grammar_fields_to_export_fields_all_special/expected/input.xlsx
+++ b/tests/integration/backend/excel/export/07_custom_grammar_fields_to_export_fields_all_special/expected/input.xlsx
@@ -37,8 +37,7 @@
     <t>REQ-002</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent: REQ-001
-</t>
+    <t>Parent: REQ-001</t>
   </si>
   <si>
     <t>Title #2</t>
@@ -61,8 +60,7 @@
     <t>REQ-003</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent: REQ-002
-</t>
+    <t>Parent: REQ-002</t>
   </si>
   <si>
     <t>Title #3</t>
@@ -90,16 +88,9 @@
     <t>REQ-004</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent: REQ-002
-----------
-File: src/samplefile.cpp
-----------
-BibRef: BSI-TR-02102-2, "Cryptographic Mechanisms: Recommandations and Key Lengths: Use of Transport Layer Security (TLS)", Version 2022-1, Section 3.5, https://www.bsi.bund.de/SharedDocs/Downloads/EN/BSI/Publications/TechGuidelines/TG02102/BSI-TR-02102-2.pdf
-----------
-BibRef: @techreport{BSI-TR-02102-1:2022:DE, title = {Kryptographische Verfahren: Empfehlungen und Schlüssellängen}, institution = {Bundesamt für Sicherheit in der Informationstechnik}, series = {Kryptographische Verfahren: Empfehlungen und Schlüssellängen}, edition = {2022-1}, year = "2022", month = "2", number = "BSI TR-02102-1", address = "Bonn, DE", type = "Technische Richtlinie", url = "https://www.bsi.bund.de/SharedDocs/Downloads/DE/BSI/Publikationen/TechnischeRichtlinien/TR02102/BSI-TR-02102.pdf" }
-----------
-BibRef: RFC-5280, Section 2.3.4
-</t>
+    <t>Parent: REQ-002
+----
+File: src/samplefile.cpp</t>
   </si>
   <si>
     <t>Title #4</t>
@@ -111,7 +102,7 @@
     <t>UID</t>
   </si>
   <si>
-    <t>REFS</t>
+    <t>RELATIONS</t>
   </si>
   <si>
     <t>PARENT</t>
@@ -197,7 +188,7 @@
   <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
     <tableColumn id="1" name="UID"/>
-    <tableColumn id="2" name="REFS"/>
+    <tableColumn id="2" name="RELATIONS"/>
     <tableColumn id="3" name="PARENT"/>
     <tableColumn id="4" name="TITLE"/>
     <tableColumn id="5" name="STATEMENT"/>
@@ -501,7 +492,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -514,7 +505,7 @@
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
@@ -560,7 +551,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -586,7 +577,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -609,7 +600,7 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
